--- a/DJT.xlsx
+++ b/DJT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B5537-A4AF-41BB-AA47-A28C11105795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3AA0D-07F3-49E0-9A8C-A5A13E4DF51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B83FB058-491B-4D22-AD19-347C342CA388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{B83FB058-491B-4D22-AD19-347C342CA388}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,14 +166,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -187,6 +185,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,20 +220,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -561,46 +574,47 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>41.21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>216.92444800000001</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -608,35 +622,35 @@
         <v>8939.4565020800001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
         <f>372.1357+300.7425</f>
         <v>672.87819999999999</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
         <f>4.6836+4.7499</f>
         <v>9.4335000000000004</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -660,47 +674,48 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="C25:J25"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -734,7 +749,7 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -775,8 +790,8 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3"/>
@@ -816,8 +831,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
@@ -877,8 +892,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3"/>
@@ -918,8 +933,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
@@ -959,8 +974,8 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3"/>
@@ -1000,8 +1015,8 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3"/>
@@ -1041,8 +1056,8 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3">
@@ -1102,8 +1117,8 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3"/>
@@ -1143,8 +1158,8 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3"/>
@@ -1184,8 +1199,8 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3"/>
@@ -1225,8 +1240,8 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3">
@@ -1286,8 +1301,8 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3"/>
@@ -1327,8 +1342,8 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3">
@@ -1388,7 +1403,7 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1422,39 +1437,39 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="e">
+      <c r="C19" s="7" t="e">
         <f t="shared" ref="C19:H19" si="8">+C17/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="2" t="e">
+      <c r="D19" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="7">
         <f t="shared" si="8"/>
         <v>-0.29752114285714287</v>
       </c>
-      <c r="F19" s="2" t="e">
+      <c r="F19" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="2" t="e">
+      <c r="G19" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="2" t="e">
+      <c r="H19" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="7">
         <f>+I17/I20</f>
         <v>-9.584241619446246E-2</v>
       </c>
-      <c r="J19" s="2" t="e">
+      <c r="J19" s="7" t="e">
         <f t="shared" ref="J19" si="9">+J17/J20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1483,8 +1498,8 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
@@ -1524,7 +1539,7 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1558,27 +1573,27 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="7" t="e">
+      <c r="G22" s="8" t="e">
         <f t="shared" ref="G22:H22" si="10">+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="7" t="e">
+      <c r="H22" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <f>+I4/E4-1</f>
         <v>-5.6380098945206791E-2</v>
       </c>
-      <c r="J22" s="7" t="e">
+      <c r="J22" s="8" t="e">
         <f t="shared" ref="J22" si="11">+J4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1607,39 +1622,39 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="e">
-        <f t="shared" ref="C23:J23" si="12">+C6/C4</f>
+      <c r="C23" s="8" t="e">
+        <f t="shared" ref="C23:H23" si="12">+C6/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="7" t="e">
+      <c r="D23" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <f t="shared" si="12"/>
         <v>0.96144870717819464</v>
       </c>
-      <c r="F23" s="7" t="e">
+      <c r="F23" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="7" t="e">
+      <c r="H23" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <f>+I6/I4</f>
         <v>0.87802947868236225</v>
       </c>
-      <c r="J23" s="7" t="e">
+      <c r="J23" s="8" t="e">
         <f t="shared" ref="J23" si="13">+J6/J4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1668,39 +1683,39 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:J24" si="14">+C11/C4</f>
+      <c r="C24" s="8" t="e">
+        <f t="shared" ref="C24:H24" si="14">+C11/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="7" t="e">
+      <c r="D24" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <f t="shared" si="14"/>
         <v>-2.8283394007280882</v>
       </c>
-      <c r="F24" s="7" t="e">
+      <c r="F24" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="7" t="e">
+      <c r="G24" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f>+I11/I4</f>
         <v>-23.399643881689585</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="8" t="e">
         <f t="shared" ref="J24" si="15">+J11/J4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1729,39 +1744,39 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25:J25" si="16">+C16/C15</f>
+      <c r="C25" s="8" t="e">
+        <f t="shared" ref="C25:H25" si="16">+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="7" t="e">
+      <c r="D25" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F25" s="7" t="e">
+      <c r="F25" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f>+I16/I15</f>
         <v>0</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f t="shared" ref="J25" si="17">+J16/J15</f>
         <v>#DIV/0!</v>
       </c>
@@ -1790,7 +1805,7 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1824,7 +1839,7 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1858,7 +1873,7 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1892,7 +1907,7 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1926,7 +1941,7 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1960,7 +1975,7 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1994,7 +2009,7 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2028,7 +2043,7 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2062,7 +2077,7 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2096,7 +2111,7 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2130,7 +2145,7 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2164,7 +2179,7 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2198,7 +2213,7 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2232,7 +2247,7 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2266,7 +2281,7 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2300,7 +2315,7 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2334,7 +2349,7 @@
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2368,7 +2383,7 @@
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2402,7 +2417,7 @@
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2436,7 +2451,7 @@
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2470,7 +2485,7 @@
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2504,7 +2519,7 @@
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
     </row>
-    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2538,7 +2553,7 @@
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
     </row>
-    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2572,7 +2587,7 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2606,7 +2621,7 @@
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2640,7 +2655,7 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2674,7 +2689,7 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2708,7 +2723,7 @@
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
     </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2742,7 +2757,7 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2776,7 +2791,7 @@
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
     </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2810,7 +2825,7 @@
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
     </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2844,7 +2859,7 @@
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
     </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2878,7 +2893,7 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
     </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2912,7 +2927,7 @@
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2946,7 +2961,7 @@
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2980,7 +2995,7 @@
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3014,7 +3029,7 @@
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3048,7 +3063,7 @@
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
     </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3082,7 +3097,7 @@
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
     </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3116,7 +3131,7 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3150,7 +3165,7 @@
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3184,7 +3199,7 @@
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3218,7 +3233,7 @@
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3252,7 +3267,7 @@
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3286,7 +3301,7 @@
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3320,7 +3335,7 @@
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
     </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3354,7 +3369,7 @@
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
     </row>
-    <row r="72" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3388,7 +3403,7 @@
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
     </row>
-    <row r="73" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3422,7 +3437,7 @@
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
     </row>
-    <row r="74" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3456,7 +3471,7 @@
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
     </row>
-    <row r="75" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3490,7 +3505,7 @@
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
     </row>
-    <row r="76" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3524,7 +3539,7 @@
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
     </row>
-    <row r="77" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3558,7 +3573,7 @@
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
     </row>
-    <row r="78" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3592,7 +3607,7 @@
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
     </row>
-    <row r="79" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3626,7 +3641,7 @@
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
     </row>
-    <row r="80" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3660,7 +3675,7 @@
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
     </row>
-    <row r="81" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3694,7 +3709,7 @@
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
     </row>
-    <row r="82" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3728,7 +3743,7 @@
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
     </row>
-    <row r="83" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3762,7 +3777,7 @@
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
     </row>
-    <row r="84" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3796,7 +3811,7 @@
       <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
     </row>
-    <row r="85" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3830,7 +3845,7 @@
       <c r="AG85" s="3"/>
       <c r="AH85" s="3"/>
     </row>
-    <row r="86" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3864,7 +3879,7 @@
       <c r="AG86" s="3"/>
       <c r="AH86" s="3"/>
     </row>
-    <row r="87" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3898,7 +3913,7 @@
       <c r="AG87" s="3"/>
       <c r="AH87" s="3"/>
     </row>
-    <row r="88" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3932,7 +3947,7 @@
       <c r="AG88" s="3"/>
       <c r="AH88" s="3"/>
     </row>
-    <row r="89" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3966,7 +3981,7 @@
       <c r="AG89" s="3"/>
       <c r="AH89" s="3"/>
     </row>
-    <row r="90" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4000,7 +4015,7 @@
       <c r="AG90" s="3"/>
       <c r="AH90" s="3"/>
     </row>
-    <row r="91" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4034,7 +4049,7 @@
       <c r="AG91" s="3"/>
       <c r="AH91" s="3"/>
     </row>
-    <row r="92" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4068,7 +4083,7 @@
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
     </row>
-    <row r="93" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4102,7 +4117,7 @@
       <c r="AG93" s="3"/>
       <c r="AH93" s="3"/>
     </row>
-    <row r="94" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4136,7 +4151,7 @@
       <c r="AG94" s="3"/>
       <c r="AH94" s="3"/>
     </row>
-    <row r="95" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4170,7 +4185,7 @@
       <c r="AG95" s="3"/>
       <c r="AH95" s="3"/>
     </row>
-    <row r="96" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4204,7 +4219,7 @@
       <c r="AG96" s="3"/>
       <c r="AH96" s="3"/>
     </row>
-    <row r="97" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4238,7 +4253,7 @@
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
     </row>
-    <row r="98" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4272,7 +4287,7 @@
       <c r="AG98" s="3"/>
       <c r="AH98" s="3"/>
     </row>
-    <row r="99" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4306,7 +4321,7 @@
       <c r="AG99" s="3"/>
       <c r="AH99" s="3"/>
     </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4340,7 +4355,7 @@
       <c r="AG100" s="3"/>
       <c r="AH100" s="3"/>
     </row>
-    <row r="101" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4374,7 +4389,7 @@
       <c r="AG101" s="3"/>
       <c r="AH101" s="3"/>
     </row>
-    <row r="102" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4408,7 +4423,7 @@
       <c r="AG102" s="3"/>
       <c r="AH102" s="3"/>
     </row>
-    <row r="103" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4442,7 +4457,7 @@
       <c r="AG103" s="3"/>
       <c r="AH103" s="3"/>
     </row>
-    <row r="104" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4476,7 +4491,7 @@
       <c r="AG104" s="3"/>
       <c r="AH104" s="3"/>
     </row>
-    <row r="105" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4510,7 +4525,7 @@
       <c r="AG105" s="3"/>
       <c r="AH105" s="3"/>
     </row>
-    <row r="106" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4544,7 +4559,7 @@
       <c r="AG106" s="3"/>
       <c r="AH106" s="3"/>
     </row>
-    <row r="107" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4578,7 +4593,7 @@
       <c r="AG107" s="3"/>
       <c r="AH107" s="3"/>
     </row>
-    <row r="108" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4612,7 +4627,7 @@
       <c r="AG108" s="3"/>
       <c r="AH108" s="3"/>
     </row>
-    <row r="109" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4646,7 +4661,7 @@
       <c r="AG109" s="3"/>
       <c r="AH109" s="3"/>
     </row>
-    <row r="110" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4680,7 +4695,7 @@
       <c r="AG110" s="3"/>
       <c r="AH110" s="3"/>
     </row>
-    <row r="111" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4714,7 +4729,7 @@
       <c r="AG111" s="3"/>
       <c r="AH111" s="3"/>
     </row>
-    <row r="112" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4748,7 +4763,7 @@
       <c r="AG112" s="3"/>
       <c r="AH112" s="3"/>
     </row>
-    <row r="113" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4782,7 +4797,7 @@
       <c r="AG113" s="3"/>
       <c r="AH113" s="3"/>
     </row>
-    <row r="114" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4816,7 +4831,7 @@
       <c r="AG114" s="3"/>
       <c r="AH114" s="3"/>
     </row>
-    <row r="115" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4850,7 +4865,7 @@
       <c r="AG115" s="3"/>
       <c r="AH115" s="3"/>
     </row>
-    <row r="116" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4884,7 +4899,7 @@
       <c r="AG116" s="3"/>
       <c r="AH116" s="3"/>
     </row>
-    <row r="117" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4918,7 +4933,7 @@
       <c r="AG117" s="3"/>
       <c r="AH117" s="3"/>
     </row>
-    <row r="118" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4952,7 +4967,7 @@
       <c r="AG118" s="3"/>
       <c r="AH118" s="3"/>
     </row>
-    <row r="119" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4986,7 +5001,7 @@
       <c r="AG119" s="3"/>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5020,7 +5035,7 @@
       <c r="AG120" s="3"/>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5054,7 +5069,7 @@
       <c r="AG121" s="3"/>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5088,7 +5103,7 @@
       <c r="AG122" s="3"/>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5122,7 +5137,7 @@
       <c r="AG123" s="3"/>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5156,7 +5171,7 @@
       <c r="AG124" s="3"/>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5190,7 +5205,7 @@
       <c r="AG125" s="3"/>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5224,7 +5239,7 @@
       <c r="AG126" s="3"/>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5258,7 +5273,7 @@
       <c r="AG127" s="3"/>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5292,7 +5307,7 @@
       <c r="AG128" s="3"/>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5326,7 +5341,7 @@
       <c r="AG129" s="3"/>
       <c r="AH129" s="3"/>
     </row>
-    <row r="130" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5360,7 +5375,7 @@
       <c r="AG130" s="3"/>
       <c r="AH130" s="3"/>
     </row>
-    <row r="131" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5394,7 +5409,7 @@
       <c r="AG131" s="3"/>
       <c r="AH131" s="3"/>
     </row>
-    <row r="132" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5428,7 +5443,7 @@
       <c r="AG132" s="3"/>
       <c r="AH132" s="3"/>
     </row>
-    <row r="133" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5462,7 +5477,7 @@
       <c r="AG133" s="3"/>
       <c r="AH133" s="3"/>
     </row>
-    <row r="134" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5496,7 +5511,7 @@
       <c r="AG134" s="3"/>
       <c r="AH134" s="3"/>
     </row>
-    <row r="135" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5530,7 +5545,7 @@
       <c r="AG135" s="3"/>
       <c r="AH135" s="3"/>
     </row>
-    <row r="136" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5564,7 +5579,7 @@
       <c r="AG136" s="3"/>
       <c r="AH136" s="3"/>
     </row>
-    <row r="137" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5598,7 +5613,7 @@
       <c r="AG137" s="3"/>
       <c r="AH137" s="3"/>
     </row>
-    <row r="138" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5632,7 +5647,7 @@
       <c r="AG138" s="3"/>
       <c r="AH138" s="3"/>
     </row>
-    <row r="139" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5666,7 +5681,7 @@
       <c r="AG139" s="3"/>
       <c r="AH139" s="3"/>
     </row>
-    <row r="140" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5700,7 +5715,7 @@
       <c r="AG140" s="3"/>
       <c r="AH140" s="3"/>
     </row>
-    <row r="141" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5734,7 +5749,7 @@
       <c r="AG141" s="3"/>
       <c r="AH141" s="3"/>
     </row>
-    <row r="142" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5768,7 +5783,7 @@
       <c r="AG142" s="3"/>
       <c r="AH142" s="3"/>
     </row>
-    <row r="143" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5802,7 +5817,7 @@
       <c r="AG143" s="3"/>
       <c r="AH143" s="3"/>
     </row>
-    <row r="144" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5836,7 +5851,7 @@
       <c r="AG144" s="3"/>
       <c r="AH144" s="3"/>
     </row>
-    <row r="145" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5870,7 +5885,7 @@
       <c r="AG145" s="3"/>
       <c r="AH145" s="3"/>
     </row>
-    <row r="146" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5904,7 +5919,7 @@
       <c r="AG146" s="3"/>
       <c r="AH146" s="3"/>
     </row>
-    <row r="147" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5938,7 +5953,7 @@
       <c r="AG147" s="3"/>
       <c r="AH147" s="3"/>
     </row>
-    <row r="148" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5972,7 +5987,7 @@
       <c r="AG148" s="3"/>
       <c r="AH148" s="3"/>
     </row>
-    <row r="149" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6006,7 +6021,7 @@
       <c r="AG149" s="3"/>
       <c r="AH149" s="3"/>
     </row>
-    <row r="150" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6040,7 +6055,7 @@
       <c r="AG150" s="3"/>
       <c r="AH150" s="3"/>
     </row>
-    <row r="151" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6074,7 +6089,7 @@
       <c r="AG151" s="3"/>
       <c r="AH151" s="3"/>
     </row>
-    <row r="152" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6108,7 +6123,7 @@
       <c r="AG152" s="3"/>
       <c r="AH152" s="3"/>
     </row>
-    <row r="153" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6142,7 +6157,7 @@
       <c r="AG153" s="3"/>
       <c r="AH153" s="3"/>
     </row>
-    <row r="154" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6176,7 +6191,7 @@
       <c r="AG154" s="3"/>
       <c r="AH154" s="3"/>
     </row>
-    <row r="155" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6210,7 +6225,7 @@
       <c r="AG155" s="3"/>
       <c r="AH155" s="3"/>
     </row>
-    <row r="156" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6244,7 +6259,7 @@
       <c r="AG156" s="3"/>
       <c r="AH156" s="3"/>
     </row>
-    <row r="157" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6278,7 +6293,7 @@
       <c r="AG157" s="3"/>
       <c r="AH157" s="3"/>
     </row>
-    <row r="158" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6312,7 +6327,7 @@
       <c r="AG158" s="3"/>
       <c r="AH158" s="3"/>
     </row>
-    <row r="159" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6346,7 +6361,7 @@
       <c r="AG159" s="3"/>
       <c r="AH159" s="3"/>
     </row>
-    <row r="160" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6380,7 +6395,7 @@
       <c r="AG160" s="3"/>
       <c r="AH160" s="3"/>
     </row>
-    <row r="161" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6414,7 +6429,7 @@
       <c r="AG161" s="3"/>
       <c r="AH161" s="3"/>
     </row>
-    <row r="162" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6448,7 +6463,7 @@
       <c r="AG162" s="3"/>
       <c r="AH162" s="3"/>
     </row>
-    <row r="163" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6482,7 +6497,7 @@
       <c r="AG163" s="3"/>
       <c r="AH163" s="3"/>
     </row>
-    <row r="164" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6516,7 +6531,7 @@
       <c r="AG164" s="3"/>
       <c r="AH164" s="3"/>
     </row>
-    <row r="165" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6550,7 +6565,7 @@
       <c r="AG165" s="3"/>
       <c r="AH165" s="3"/>
     </row>
-    <row r="166" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6584,7 +6599,7 @@
       <c r="AG166" s="3"/>
       <c r="AH166" s="3"/>
     </row>
-    <row r="167" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6618,7 +6633,7 @@
       <c r="AG167" s="3"/>
       <c r="AH167" s="3"/>
     </row>
-    <row r="168" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6652,7 +6667,7 @@
       <c r="AG168" s="3"/>
       <c r="AH168" s="3"/>
     </row>
-    <row r="169" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6686,7 +6701,7 @@
       <c r="AG169" s="3"/>
       <c r="AH169" s="3"/>
     </row>
-    <row r="170" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6720,7 +6735,7 @@
       <c r="AG170" s="3"/>
       <c r="AH170" s="3"/>
     </row>
-    <row r="171" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6754,7 +6769,7 @@
       <c r="AG171" s="3"/>
       <c r="AH171" s="3"/>
     </row>
-    <row r="172" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6788,7 +6803,7 @@
       <c r="AG172" s="3"/>
       <c r="AH172" s="3"/>
     </row>
-    <row r="173" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6822,7 +6837,7 @@
       <c r="AG173" s="3"/>
       <c r="AH173" s="3"/>
     </row>
-    <row r="174" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6856,7 +6871,7 @@
       <c r="AG174" s="3"/>
       <c r="AH174" s="3"/>
     </row>
-    <row r="175" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6890,7 +6905,7 @@
       <c r="AG175" s="3"/>
       <c r="AH175" s="3"/>
     </row>
-    <row r="176" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6924,7 +6939,7 @@
       <c r="AG176" s="3"/>
       <c r="AH176" s="3"/>
     </row>
-    <row r="177" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6958,7 +6973,7 @@
       <c r="AG177" s="3"/>
       <c r="AH177" s="3"/>
     </row>
-    <row r="178" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6992,7 +7007,7 @@
       <c r="AG178" s="3"/>
       <c r="AH178" s="3"/>
     </row>
-    <row r="179" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7026,7 +7041,7 @@
       <c r="AG179" s="3"/>
       <c r="AH179" s="3"/>
     </row>
-    <row r="180" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7060,7 +7075,7 @@
       <c r="AG180" s="3"/>
       <c r="AH180" s="3"/>
     </row>
-    <row r="181" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7094,7 +7109,7 @@
       <c r="AG181" s="3"/>
       <c r="AH181" s="3"/>
     </row>
-    <row r="182" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7128,7 +7143,7 @@
       <c r="AG182" s="3"/>
       <c r="AH182" s="3"/>
     </row>
-    <row r="183" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7162,7 +7177,7 @@
       <c r="AG183" s="3"/>
       <c r="AH183" s="3"/>
     </row>
-    <row r="184" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7196,7 +7211,7 @@
       <c r="AG184" s="3"/>
       <c r="AH184" s="3"/>
     </row>
-    <row r="185" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7230,7 +7245,7 @@
       <c r="AG185" s="3"/>
       <c r="AH185" s="3"/>
     </row>
-    <row r="186" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7264,7 +7279,7 @@
       <c r="AG186" s="3"/>
       <c r="AH186" s="3"/>
     </row>
-    <row r="187" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7298,7 +7313,7 @@
       <c r="AG187" s="3"/>
       <c r="AH187" s="3"/>
     </row>
-    <row r="188" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7332,7 +7347,7 @@
       <c r="AG188" s="3"/>
       <c r="AH188" s="3"/>
     </row>
-    <row r="189" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7366,7 +7381,7 @@
       <c r="AG189" s="3"/>
       <c r="AH189" s="3"/>
     </row>
-    <row r="190" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7400,7 +7415,7 @@
       <c r="AG190" s="3"/>
       <c r="AH190" s="3"/>
     </row>
-    <row r="191" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7434,7 +7449,7 @@
       <c r="AG191" s="3"/>
       <c r="AH191" s="3"/>
     </row>
-    <row r="192" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7468,7 +7483,7 @@
       <c r="AG192" s="3"/>
       <c r="AH192" s="3"/>
     </row>
-    <row r="193" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7502,7 +7517,7 @@
       <c r="AG193" s="3"/>
       <c r="AH193" s="3"/>
     </row>
-    <row r="194" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7536,7 +7551,7 @@
       <c r="AG194" s="3"/>
       <c r="AH194" s="3"/>
     </row>
-    <row r="195" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -7570,7 +7585,7 @@
       <c r="AG195" s="3"/>
       <c r="AH195" s="3"/>
     </row>
-    <row r="196" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7604,7 +7619,7 @@
       <c r="AG196" s="3"/>
       <c r="AH196" s="3"/>
     </row>
-    <row r="197" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7638,7 +7653,7 @@
       <c r="AG197" s="3"/>
       <c r="AH197" s="3"/>
     </row>
-    <row r="198" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -7672,7 +7687,7 @@
       <c r="AG198" s="3"/>
       <c r="AH198" s="3"/>
     </row>
-    <row r="199" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -7706,7 +7721,7 @@
       <c r="AG199" s="3"/>
       <c r="AH199" s="3"/>
     </row>
-    <row r="200" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -7740,7 +7755,7 @@
       <c r="AG200" s="3"/>
       <c r="AH200" s="3"/>
     </row>
-    <row r="201" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -7774,7 +7789,7 @@
       <c r="AG201" s="3"/>
       <c r="AH201" s="3"/>
     </row>
-    <row r="202" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7808,7 +7823,7 @@
       <c r="AG202" s="3"/>
       <c r="AH202" s="3"/>
     </row>
-    <row r="203" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7842,7 +7857,7 @@
       <c r="AG203" s="3"/>
       <c r="AH203" s="3"/>
     </row>
-    <row r="204" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7876,7 +7891,7 @@
       <c r="AG204" s="3"/>
       <c r="AH204" s="3"/>
     </row>
-    <row r="205" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7910,7 +7925,7 @@
       <c r="AG205" s="3"/>
       <c r="AH205" s="3"/>
     </row>
-    <row r="206" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7944,7 +7959,7 @@
       <c r="AG206" s="3"/>
       <c r="AH206" s="3"/>
     </row>
-    <row r="207" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7978,7 +7993,7 @@
       <c r="AG207" s="3"/>
       <c r="AH207" s="3"/>
     </row>
-    <row r="208" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8012,7 +8027,7 @@
       <c r="AG208" s="3"/>
       <c r="AH208" s="3"/>
     </row>
-    <row r="209" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8046,7 +8061,7 @@
       <c r="AG209" s="3"/>
       <c r="AH209" s="3"/>
     </row>
-    <row r="210" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8080,7 +8095,7 @@
       <c r="AG210" s="3"/>
       <c r="AH210" s="3"/>
     </row>
-    <row r="211" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8114,7 +8129,7 @@
       <c r="AG211" s="3"/>
       <c r="AH211" s="3"/>
     </row>
-    <row r="212" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8148,7 +8163,7 @@
       <c r="AG212" s="3"/>
       <c r="AH212" s="3"/>
     </row>
-    <row r="213" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8182,7 +8197,7 @@
       <c r="AG213" s="3"/>
       <c r="AH213" s="3"/>
     </row>
-    <row r="214" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8216,7 +8231,7 @@
       <c r="AG214" s="3"/>
       <c r="AH214" s="3"/>
     </row>
-    <row r="215" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8250,7 +8265,7 @@
       <c r="AG215" s="3"/>
       <c r="AH215" s="3"/>
     </row>
-    <row r="216" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8284,7 +8299,7 @@
       <c r="AG216" s="3"/>
       <c r="AH216" s="3"/>
     </row>
-    <row r="217" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8318,7 +8333,7 @@
       <c r="AG217" s="3"/>
       <c r="AH217" s="3"/>
     </row>
-    <row r="218" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8352,7 +8367,7 @@
       <c r="AG218" s="3"/>
       <c r="AH218" s="3"/>
     </row>
-    <row r="219" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8386,7 +8401,7 @@
       <c r="AG219" s="3"/>
       <c r="AH219" s="3"/>
     </row>
-    <row r="220" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8420,7 +8435,7 @@
       <c r="AG220" s="3"/>
       <c r="AH220" s="3"/>
     </row>
-    <row r="221" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8454,7 +8469,7 @@
       <c r="AG221" s="3"/>
       <c r="AH221" s="3"/>
     </row>
-    <row r="222" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8488,7 +8503,7 @@
       <c r="AG222" s="3"/>
       <c r="AH222" s="3"/>
     </row>
-    <row r="223" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -8522,7 +8537,7 @@
       <c r="AG223" s="3"/>
       <c r="AH223" s="3"/>
     </row>
-    <row r="224" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -8556,7 +8571,7 @@
       <c r="AG224" s="3"/>
       <c r="AH224" s="3"/>
     </row>
-    <row r="225" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -8590,7 +8605,7 @@
       <c r="AG225" s="3"/>
       <c r="AH225" s="3"/>
     </row>
-    <row r="226" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -8624,7 +8639,7 @@
       <c r="AG226" s="3"/>
       <c r="AH226" s="3"/>
     </row>
-    <row r="227" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -8658,7 +8673,7 @@
       <c r="AG227" s="3"/>
       <c r="AH227" s="3"/>
     </row>
-    <row r="228" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -8692,7 +8707,7 @@
       <c r="AG228" s="3"/>
       <c r="AH228" s="3"/>
     </row>
-    <row r="229" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -8726,7 +8741,7 @@
       <c r="AG229" s="3"/>
       <c r="AH229" s="3"/>
     </row>
-    <row r="230" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -8760,7 +8775,7 @@
       <c r="AG230" s="3"/>
       <c r="AH230" s="3"/>
     </row>
-    <row r="231" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -8794,7 +8809,7 @@
       <c r="AG231" s="3"/>
       <c r="AH231" s="3"/>
     </row>
-    <row r="232" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -8828,7 +8843,7 @@
       <c r="AG232" s="3"/>
       <c r="AH232" s="3"/>
     </row>
-    <row r="233" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -8862,7 +8877,7 @@
       <c r="AG233" s="3"/>
       <c r="AH233" s="3"/>
     </row>
-    <row r="234" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -8896,7 +8911,7 @@
       <c r="AG234" s="3"/>
       <c r="AH234" s="3"/>
     </row>
-    <row r="235" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -8930,7 +8945,7 @@
       <c r="AG235" s="3"/>
       <c r="AH235" s="3"/>
     </row>
-    <row r="236" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -8964,7 +8979,7 @@
       <c r="AG236" s="3"/>
       <c r="AH236" s="3"/>
     </row>
-    <row r="237" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -8998,7 +9013,7 @@
       <c r="AG237" s="3"/>
       <c r="AH237" s="3"/>
     </row>
-    <row r="238" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9032,7 +9047,7 @@
       <c r="AG238" s="3"/>
       <c r="AH238" s="3"/>
     </row>
-    <row r="239" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9066,7 +9081,7 @@
       <c r="AG239" s="3"/>
       <c r="AH239" s="3"/>
     </row>
-    <row r="240" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9100,7 +9115,7 @@
       <c r="AG240" s="3"/>
       <c r="AH240" s="3"/>
     </row>
-    <row r="241" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9134,7 +9149,7 @@
       <c r="AG241" s="3"/>
       <c r="AH241" s="3"/>
     </row>
-    <row r="242" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9168,7 +9183,7 @@
       <c r="AG242" s="3"/>
       <c r="AH242" s="3"/>
     </row>
-    <row r="243" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9202,7 +9217,7 @@
       <c r="AG243" s="3"/>
       <c r="AH243" s="3"/>
     </row>
-    <row r="244" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9236,7 +9251,7 @@
       <c r="AG244" s="3"/>
       <c r="AH244" s="3"/>
     </row>
-    <row r="245" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9270,7 +9285,7 @@
       <c r="AG245" s="3"/>
       <c r="AH245" s="3"/>
     </row>
-    <row r="246" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9304,7 +9319,7 @@
       <c r="AG246" s="3"/>
       <c r="AH246" s="3"/>
     </row>
-    <row r="247" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9338,7 +9353,7 @@
       <c r="AG247" s="3"/>
       <c r="AH247" s="3"/>
     </row>
-    <row r="248" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9372,7 +9387,7 @@
       <c r="AG248" s="3"/>
       <c r="AH248" s="3"/>
     </row>
-    <row r="249" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9406,7 +9421,7 @@
       <c r="AG249" s="3"/>
       <c r="AH249" s="3"/>
     </row>
-    <row r="250" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -9440,7 +9455,7 @@
       <c r="AG250" s="3"/>
       <c r="AH250" s="3"/>
     </row>
-    <row r="251" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -9474,7 +9489,7 @@
       <c r="AG251" s="3"/>
       <c r="AH251" s="3"/>
     </row>
-    <row r="252" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -9508,7 +9523,7 @@
       <c r="AG252" s="3"/>
       <c r="AH252" s="3"/>
     </row>
-    <row r="253" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -9542,7 +9557,7 @@
       <c r="AG253" s="3"/>
       <c r="AH253" s="3"/>
     </row>
-    <row r="254" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -9576,7 +9591,7 @@
       <c r="AG254" s="3"/>
       <c r="AH254" s="3"/>
     </row>
-    <row r="255" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -9610,7 +9625,7 @@
       <c r="AG255" s="3"/>
       <c r="AH255" s="3"/>
     </row>
-    <row r="256" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -9644,7 +9659,7 @@
       <c r="AG256" s="3"/>
       <c r="AH256" s="3"/>
     </row>
-    <row r="257" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -9678,7 +9693,7 @@
       <c r="AG257" s="3"/>
       <c r="AH257" s="3"/>
     </row>
-    <row r="258" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -9712,7 +9727,7 @@
       <c r="AG258" s="3"/>
       <c r="AH258" s="3"/>
     </row>
-    <row r="259" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -9746,7 +9761,7 @@
       <c r="AG259" s="3"/>
       <c r="AH259" s="3"/>
     </row>
-    <row r="260" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -9780,7 +9795,7 @@
       <c r="AG260" s="3"/>
       <c r="AH260" s="3"/>
     </row>
-    <row r="261" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9814,7 +9829,7 @@
       <c r="AG261" s="3"/>
       <c r="AH261" s="3"/>
     </row>
-    <row r="262" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -9848,7 +9863,7 @@
       <c r="AG262" s="3"/>
       <c r="AH262" s="3"/>
     </row>
-    <row r="263" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -9882,7 +9897,7 @@
       <c r="AG263" s="3"/>
       <c r="AH263" s="3"/>
     </row>
-    <row r="264" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -9916,7 +9931,7 @@
       <c r="AG264" s="3"/>
       <c r="AH264" s="3"/>
     </row>
-    <row r="265" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -9950,7 +9965,7 @@
       <c r="AG265" s="3"/>
       <c r="AH265" s="3"/>
     </row>
-    <row r="266" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -9984,7 +9999,7 @@
       <c r="AG266" s="3"/>
       <c r="AH266" s="3"/>
     </row>
-    <row r="267" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10018,7 +10033,7 @@
       <c r="AG267" s="3"/>
       <c r="AH267" s="3"/>
     </row>
-    <row r="268" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10052,7 +10067,7 @@
       <c r="AG268" s="3"/>
       <c r="AH268" s="3"/>
     </row>
-    <row r="269" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10086,7 +10101,7 @@
       <c r="AG269" s="3"/>
       <c r="AH269" s="3"/>
     </row>
-    <row r="270" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10120,7 +10135,7 @@
       <c r="AG270" s="3"/>
       <c r="AH270" s="3"/>
     </row>
-    <row r="271" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10154,7 +10169,7 @@
       <c r="AG271" s="3"/>
       <c r="AH271" s="3"/>
     </row>
-    <row r="272" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10188,7 +10203,7 @@
       <c r="AG272" s="3"/>
       <c r="AH272" s="3"/>
     </row>
-    <row r="273" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10222,7 +10237,7 @@
       <c r="AG273" s="3"/>
       <c r="AH273" s="3"/>
     </row>
-    <row r="274" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10256,7 +10271,7 @@
       <c r="AG274" s="3"/>
       <c r="AH274" s="3"/>
     </row>
-    <row r="275" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10290,7 +10305,7 @@
       <c r="AG275" s="3"/>
       <c r="AH275" s="3"/>
     </row>
-    <row r="276" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10324,7 +10339,7 @@
       <c r="AG276" s="3"/>
       <c r="AH276" s="3"/>
     </row>
-    <row r="277" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10358,7 +10373,7 @@
       <c r="AG277" s="3"/>
       <c r="AH277" s="3"/>
     </row>
-    <row r="278" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -10392,7 +10407,7 @@
       <c r="AG278" s="3"/>
       <c r="AH278" s="3"/>
     </row>
-    <row r="279" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -10426,7 +10441,7 @@
       <c r="AG279" s="3"/>
       <c r="AH279" s="3"/>
     </row>
-    <row r="280" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -10460,7 +10475,7 @@
       <c r="AG280" s="3"/>
       <c r="AH280" s="3"/>
     </row>
-    <row r="281" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -10494,7 +10509,7 @@
       <c r="AG281" s="3"/>
       <c r="AH281" s="3"/>
     </row>
-    <row r="282" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -10528,7 +10543,7 @@
       <c r="AG282" s="3"/>
       <c r="AH282" s="3"/>
     </row>
-    <row r="283" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -10562,7 +10577,7 @@
       <c r="AG283" s="3"/>
       <c r="AH283" s="3"/>
     </row>
-    <row r="284" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -10596,7 +10611,7 @@
       <c r="AG284" s="3"/>
       <c r="AH284" s="3"/>
     </row>
-    <row r="285" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -10630,7 +10645,7 @@
       <c r="AG285" s="3"/>
       <c r="AH285" s="3"/>
     </row>
-    <row r="286" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -10664,7 +10679,7 @@
       <c r="AG286" s="3"/>
       <c r="AH286" s="3"/>
     </row>
-    <row r="287" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -10698,7 +10713,7 @@
       <c r="AG287" s="3"/>
       <c r="AH287" s="3"/>
     </row>
-    <row r="288" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -10732,7 +10747,7 @@
       <c r="AG288" s="3"/>
       <c r="AH288" s="3"/>
     </row>
-    <row r="289" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -10766,7 +10781,7 @@
       <c r="AG289" s="3"/>
       <c r="AH289" s="3"/>
     </row>
-    <row r="290" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -10800,7 +10815,7 @@
       <c r="AG290" s="3"/>
       <c r="AH290" s="3"/>
     </row>
-    <row r="291" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
